--- a/scripts/010 Pong Teams/Pong_ELO.xlsx
+++ b/scripts/010 Pong Teams/Pong_ELO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulmcgrath/Github/Fantasy-Banter/scripts/010 Pong Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABC30A-C841-CB42-B28D-B6DDC232AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE72114-2127-1343-9CA3-BE0DF0292FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="197">
   <si>
     <t>GAME_ID</t>
   </si>
@@ -493,18 +493,6 @@
     <t>z-score</t>
   </si>
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t>Team 4</t>
-  </si>
-  <si>
     <t>RR1</t>
   </si>
   <si>
@@ -575,18 +563,6 @@
   </si>
   <si>
     <t>DRAFT</t>
-  </si>
-  <si>
-    <t>PMAC &amp; GARTER</t>
-  </si>
-  <si>
-    <t>MELONS &amp; MATT</t>
-  </si>
-  <si>
-    <t>RICHO &amp; KAPPAZ</t>
-  </si>
-  <si>
-    <t>CHIEF &amp; LESTER</t>
   </si>
   <si>
     <t>Team</t>
@@ -666,6 +642,36 @@
   <si>
     <t>2024_I1</t>
   </si>
+  <si>
+    <t>Jimbob</t>
+  </si>
+  <si>
+    <t>@on.trac5</t>
+  </si>
+  <si>
+    <t>LET HIM COOK</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>Makin' Hay</t>
+  </si>
+  <si>
+    <t>You're a wizard, </t>
+  </si>
+  <si>
+    <t>Kap &amp; Garter</t>
+  </si>
+  <si>
+    <t>Richo &amp; Lester</t>
+  </si>
+  <si>
+    <t>Pmac &amp; James</t>
+  </si>
+  <si>
+    <t>Chief &amp; Melons</t>
+  </si>
 </sst>
 </file>
 
@@ -673,9 +679,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0;[Red]\-0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]\-0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -815,6 +821,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1160,7 +1172,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1174,14 +1186,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6879,10 +6892,10 @@
   <dimension ref="A2:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y47" sqref="Y47"/>
+      <selection pane="bottomRight" activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7346,7 +7359,7 @@
         <f>IF(SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A4,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2)=0,NA(),SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A4,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2))</f>
         <v>963</v>
       </c>
-      <c r="BK4" s="9"/>
+      <c r="BK4" s="7"/>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7595,7 +7608,7 @@
         <f>IF(SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A5,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2)=0,NA(),SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A5,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2))</f>
         <v>835</v>
       </c>
-      <c r="BK5" s="9"/>
+      <c r="BK5" s="7"/>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7844,7 +7857,7 @@
         <f>IF(SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A6,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2)=0,NA(),SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A6,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2))</f>
         <v>1076</v>
       </c>
-      <c r="BK6" s="9"/>
+      <c r="BK6" s="7"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -8093,7 +8106,7 @@
         <f>IF(SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A7,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2)=0,NA(),SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A7,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2))</f>
         <v>873</v>
       </c>
-      <c r="BK7" s="9"/>
+      <c r="BK7" s="7"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -8342,7 +8355,7 @@
         <f>IF(SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A8,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2)=0,NA(),SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A8,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2))</f>
         <v>982</v>
       </c>
-      <c r="BK8" s="9"/>
+      <c r="BK8" s="7"/>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8591,7 +8604,7 @@
         <f>IF(SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A9,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2)=0,NA(),SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A9,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2))</f>
         <v>937</v>
       </c>
-      <c r="BK9" s="9"/>
+      <c r="BK9" s="7"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -8840,7 +8853,7 @@
         <f>IF(SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A10,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2)=0,NA(),SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A10,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2))</f>
         <v>1131</v>
       </c>
-      <c r="BK10" s="9"/>
+      <c r="BK10" s="7"/>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9089,7 +9102,7 @@
         <f>IF(SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A11,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2)=0,NA(),SUMIFS(Pong_ELO!$G:$G,Pong_ELO!$D:$D,'Sheet1 (2)'!$A11,Pong_ELO!$L:$L,'Sheet1 (2)'!BJ$2))</f>
         <v>1203</v>
       </c>
-      <c r="BK11" s="9"/>
+      <c r="BK11" s="7"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -11128,22 +11141,22 @@
       <c r="AJ24">
         <v>2024</v>
       </c>
-      <c r="AM24" s="10">
+      <c r="AM24" s="8">
         <v>2019</v>
       </c>
-      <c r="AN24" s="10">
+      <c r="AN24" s="8">
         <v>2020</v>
       </c>
-      <c r="AO24" s="10">
+      <c r="AO24" s="8">
         <v>2021</v>
       </c>
-      <c r="AP24" s="10">
+      <c r="AP24" s="8">
         <v>2022</v>
       </c>
-      <c r="AQ24" s="10">
+      <c r="AQ24" s="8">
         <v>2023</v>
       </c>
-      <c r="AR24" s="10">
+      <c r="AR24" s="8">
         <v>2024</v>
       </c>
     </row>
@@ -11178,30 +11191,30 @@
         <f t="array" ref="AJ25">IFERROR(INDEX(4:4,AJ$23+9),AI25)</f>
         <v>963</v>
       </c>
-      <c r="AL25" s="10" t="s">
+      <c r="AL25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AM25" s="9">
+      <c r="AM25" s="7">
         <f>AE25-AD25</f>
         <v>45</v>
       </c>
-      <c r="AN25" s="9">
+      <c r="AN25" s="7">
         <f t="shared" ref="AN25:AR32" si="1">AF25-AE25</f>
         <v>-5</v>
       </c>
-      <c r="AO25" s="9">
+      <c r="AO25" s="7">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="AP25" s="9">
+      <c r="AP25" s="7">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AQ25" s="9">
+      <c r="AQ25" s="7">
         <f t="shared" si="1"/>
         <v>-48</v>
       </c>
-      <c r="AR25" s="9">
+      <c r="AR25" s="7">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
@@ -11237,30 +11250,30 @@
         <f t="array" ref="AJ26">IFERROR(INDEX(5:5,AJ$23+9),AI26)</f>
         <v>835</v>
       </c>
-      <c r="AL26" s="10" t="s">
+      <c r="AL26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AM26" s="9">
+      <c r="AM26" s="7">
         <f t="shared" ref="AM26:AM32" si="2">AE26-AD26</f>
         <v>-32</v>
       </c>
-      <c r="AN26" s="9">
+      <c r="AN26" s="7">
         <f t="shared" si="1"/>
         <v>-75</v>
       </c>
-      <c r="AO26" s="9">
+      <c r="AO26" s="7">
         <f t="shared" si="1"/>
         <v>-66</v>
       </c>
-      <c r="AP26" s="9">
+      <c r="AP26" s="7">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="AQ26" s="9">
+      <c r="AQ26" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AR26" s="9">
+      <c r="AR26" s="7">
         <f t="shared" si="1"/>
         <v>-103</v>
       </c>
@@ -11296,30 +11309,30 @@
         <f t="array" ref="AJ27">IFERROR(INDEX(6:6,AJ$23+9),AI27)</f>
         <v>1076</v>
       </c>
-      <c r="AL27" s="10" t="s">
+      <c r="AL27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AM27" s="9">
+      <c r="AM27" s="7">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="AN27" s="9">
+      <c r="AN27" s="7">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="AO27" s="9">
+      <c r="AO27" s="7">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="AP27" s="9">
+      <c r="AP27" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AQ27" s="9">
+      <c r="AQ27" s="7">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="AR27" s="9">
+      <c r="AR27" s="7">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
@@ -11355,30 +11368,30 @@
         <f t="array" ref="AJ28">IFERROR(INDEX(7:7,AJ$23+9),AI28)</f>
         <v>873</v>
       </c>
-      <c r="AL28" s="10" t="s">
+      <c r="AL28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM28" s="9">
+      <c r="AM28" s="7">
         <f t="shared" si="2"/>
         <v>-72</v>
       </c>
-      <c r="AN28" s="9">
+      <c r="AN28" s="7">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="AO28" s="9">
+      <c r="AO28" s="7">
         <f t="shared" si="1"/>
         <v>-44</v>
       </c>
-      <c r="AP28" s="9">
+      <c r="AP28" s="7">
         <f t="shared" si="1"/>
         <v>-110</v>
       </c>
-      <c r="AQ28" s="9">
+      <c r="AQ28" s="7">
         <f t="shared" si="1"/>
         <v>-19</v>
       </c>
-      <c r="AR28" s="9">
+      <c r="AR28" s="7">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -11414,30 +11427,30 @@
         <f t="array" ref="AJ29">IFERROR(INDEX(8:8,AJ$23+9),AI29)</f>
         <v>982</v>
       </c>
-      <c r="AL29" s="10" t="s">
+      <c r="AL29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AM29" s="9">
+      <c r="AM29" s="7">
         <f t="shared" si="2"/>
         <v>-52</v>
       </c>
-      <c r="AN29" s="9">
+      <c r="AN29" s="7">
         <f t="shared" si="1"/>
         <v>-79</v>
       </c>
-      <c r="AO29" s="9">
+      <c r="AO29" s="7">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="AP29" s="9">
+      <c r="AP29" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="9">
+      <c r="AQ29" s="7">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="AR29" s="9">
+      <c r="AR29" s="7">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -11473,30 +11486,30 @@
         <f t="array" ref="AJ30">IFERROR(INDEX(9:9,AJ$23+9),AI30)</f>
         <v>937</v>
       </c>
-      <c r="AL30" s="10" t="s">
+      <c r="AL30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AM30" s="9">
+      <c r="AM30" s="7">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="AN30" s="9">
+      <c r="AN30" s="7">
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="AO30" s="9">
+      <c r="AO30" s="7">
         <f t="shared" si="1"/>
         <v>-39</v>
       </c>
-      <c r="AP30" s="9">
+      <c r="AP30" s="7">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="AQ30" s="9">
+      <c r="AQ30" s="7">
         <f t="shared" si="1"/>
         <v>-35</v>
       </c>
-      <c r="AR30" s="9">
+      <c r="AR30" s="7">
         <f t="shared" si="1"/>
         <v>-59</v>
       </c>
@@ -11532,30 +11545,30 @@
         <f t="array" ref="AJ31">IFERROR(INDEX(10:10,AJ$23+9),AI31)</f>
         <v>1131</v>
       </c>
-      <c r="AL31" s="10" t="s">
+      <c r="AL31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AM31" s="9">
+      <c r="AM31" s="7">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AN31" s="9">
+      <c r="AN31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="AO31" s="9">
+      <c r="AO31" s="7">
         <f t="shared" si="1"/>
         <v>-70</v>
       </c>
-      <c r="AP31" s="9">
+      <c r="AP31" s="7">
         <f t="shared" si="1"/>
         <v>-36</v>
       </c>
-      <c r="AQ31" s="9">
+      <c r="AQ31" s="7">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="AR31" s="9">
+      <c r="AR31" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -11591,30 +11604,30 @@
         <f t="array" ref="AJ32">IFERROR(INDEX(11:11,AJ$23+9),AI32)</f>
         <v>1203</v>
       </c>
-      <c r="AL32" s="10" t="s">
+      <c r="AL32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AM32" s="9">
+      <c r="AM32" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="AN32" s="9">
+      <c r="AN32" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AO32" s="9">
+      <c r="AO32" s="7">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="AP32" s="9">
+      <c r="AP32" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ32" s="9">
+      <c r="AQ32" s="7">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AR32" s="9">
+      <c r="AR32" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -11630,12 +11643,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="20.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -11653,42 +11668,42 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>993</v>
+      <c r="B2">
+        <v>963</v>
       </c>
       <c r="H2" t="s">
         <v>134</v>
       </c>
       <c r="I2">
         <f>STDEV(C3,C6,C9,C12)</f>
-        <v>194.63983833395122</v>
+        <v>84.352435254314585</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
-        <v>840</v>
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>982</v>
       </c>
       <c r="C3" s="3">
         <f>SUM(B2:B3)</f>
-        <v>1833</v>
+        <v>1945</v>
       </c>
       <c r="D3" s="3">
         <f>STANDARDIZE(C3,AVERAGE($C$3:$C$12),_xlfn.STDEV.P($C$3:$C$12))</f>
-        <v>-0.99072724042485305</v>
+        <v>-0.75289503402464486</v>
       </c>
       <c r="E3" s="5">
         <f>_xlfn.NORM.DIST(D3,0,1,TRUE)</f>
-        <v>0.16090939294866688</v>
+        <v>0.22575649625823749</v>
       </c>
       <c r="F3" s="4">
         <f>E3/SUM(E:E)</f>
-        <v>8.5911237056657638E-2</v>
+        <v>0.11219068524878324</v>
       </c>
       <c r="H3" t="s">
         <v>135</v>
@@ -11702,108 +11717,108 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="3">
-        <v>996</v>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>835</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>898</v>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1076</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(B5:B6)</f>
-        <v>1894</v>
+        <v>1911</v>
       </c>
       <c r="D6" s="3">
         <f>STANDARDIZE(C6,AVERAGE($C$3:$C$12),_xlfn.STDEV.P($C$3:$C$12))</f>
-        <v>-0.62884483523972712</v>
+        <v>-1.2183210550580619</v>
       </c>
       <c r="E6" s="5">
         <f>_xlfn.NORM.DIST(D6,0,1,TRUE)</f>
-        <v>0.26472532205827021</v>
+        <v>0.11155099596717916</v>
       </c>
       <c r="F6" s="4">
         <f>E6/SUM(E:E)</f>
-        <v>0.14133966626487426</v>
+        <v>5.5435758816111742E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>873</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>1185</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1088</v>
+      <c r="B9">
+        <v>1203</v>
       </c>
       <c r="C9" s="3">
         <f>SUM(B8:B9)</f>
-        <v>2273</v>
+        <v>2076</v>
       </c>
       <c r="D9" s="3">
         <f>STANDARDIZE(C9,AVERAGE($C$3:$C$12),_xlfn.STDEV.P($C$3:$C$12))</f>
-        <v>1.6195720756645802</v>
+        <v>1.040364047015873</v>
       </c>
       <c r="E9" s="5">
         <f>_xlfn.NORM.DIST(D9,0,1,TRUE)</f>
-        <v>0.94733788393898044</v>
+        <v>0.85091460069162927</v>
       </c>
       <c r="F9" s="4">
         <f>E9/SUM(E:E)</f>
-        <v>0.50579377641302858</v>
+        <v>0.42286575900163187</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
-        <v>1062</v>
+      <c r="B11">
+        <v>1131</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3">
-        <v>938</v>
+        <v>187</v>
+      </c>
+      <c r="B12">
+        <v>937</v>
       </c>
       <c r="C12" s="3">
         <f>SUM(B11:B12)</f>
-        <v>2000</v>
+        <v>2068</v>
       </c>
       <c r="D12" s="3">
         <f>STANDARDIZE(C12,AVERAGE($C$3:$C$12),_xlfn.STDEV.P($C$3:$C$12))</f>
-        <v>0</v>
+        <v>0.9308520420668337</v>
       </c>
       <c r="E12" s="5">
         <f>_xlfn.NORM.DIST(D12,0,1,TRUE)</f>
-        <v>0.5</v>
+        <v>0.82403494747469097</v>
       </c>
       <c r="F12" s="4">
         <f>E12/SUM(E:E)</f>
-        <v>0.2669553202654395</v>
+        <v>0.40950779693347306</v>
       </c>
     </row>
   </sheetData>
@@ -11816,7 +11831,7 @@
   <dimension ref="A1:L395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C384" sqref="C384"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11889,7 +11904,7 @@
         <v>971</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H33" si="0">LEFT(B2,4)</f>
+        <f t="shared" ref="H2" si="0">LEFT(B2,4)</f>
         <v>2019</v>
       </c>
       <c r="I2">
@@ -25717,10 +25732,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C324" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D324" t="s">
         <v>11</v>
@@ -25760,10 +25775,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C325" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D325" t="s">
         <v>12</v>
@@ -25803,10 +25818,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C326" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D326" t="s">
         <v>87</v>
@@ -25846,10 +25861,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C327" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D327" t="s">
         <v>13</v>
@@ -25889,10 +25904,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C328" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D328" t="s">
         <v>6</v>
@@ -25932,10 +25947,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C329" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
@@ -25975,10 +25990,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C330" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D330" t="s">
         <v>14</v>
@@ -26018,10 +26033,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C331" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D331" t="s">
         <v>9</v>
@@ -26061,10 +26076,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C332" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D332" t="s">
         <v>6</v>
@@ -26104,10 +26119,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C333" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D333" t="s">
         <v>87</v>
@@ -26147,10 +26162,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C334" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D334" t="s">
         <v>13</v>
@@ -26190,10 +26205,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C335" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D335" t="s">
         <v>14</v>
@@ -26233,10 +26248,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C336" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D336" t="s">
         <v>11</v>
@@ -26276,10 +26291,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C337" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
@@ -26319,10 +26334,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C338" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D338" t="s">
         <v>12</v>
@@ -26362,10 +26377,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C339" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D339" t="s">
         <v>9</v>
@@ -26405,10 +26420,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C340" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D340" t="s">
         <v>7</v>
@@ -26448,10 +26463,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C341" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D341" t="s">
         <v>87</v>
@@ -26491,10 +26506,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C342" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D342" t="s">
         <v>13</v>
@@ -26534,10 +26549,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C343" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D343" t="s">
         <v>9</v>
@@ -26577,10 +26592,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C344" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D344" t="s">
         <v>11</v>
@@ -26620,10 +26635,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C345" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D345" t="s">
         <v>6</v>
@@ -26663,10 +26678,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C346" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D346" t="s">
         <v>12</v>
@@ -26706,10 +26721,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C347" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D347" t="s">
         <v>14</v>
@@ -26749,10 +26764,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C348" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D348" t="s">
         <v>6</v>
@@ -26792,10 +26807,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C349" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D349" t="s">
         <v>87</v>
@@ -26835,10 +26850,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C350" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D350" t="s">
         <v>13</v>
@@ -26878,10 +26893,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C351" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D351" t="s">
         <v>14</v>
@@ -26921,10 +26936,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C352" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D352" t="s">
         <v>11</v>
@@ -26964,10 +26979,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C353" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D353" t="s">
         <v>7</v>
@@ -27007,10 +27022,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C354" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D354" t="s">
         <v>12</v>
@@ -27050,10 +27065,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C355" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D355" t="s">
         <v>9</v>
@@ -27093,10 +27108,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C356" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D356" t="s">
         <v>11</v>
@@ -27136,10 +27151,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C357" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D357" t="s">
         <v>6</v>
@@ -27179,10 +27194,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C358" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D358" t="s">
         <v>12</v>
@@ -27222,10 +27237,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C359" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D359" t="s">
         <v>14</v>
@@ -27265,10 +27280,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C360" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D360" t="s">
         <v>7</v>
@@ -27308,10 +27323,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C361" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D361" t="s">
         <v>87</v>
@@ -27351,10 +27366,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C362" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D362" t="s">
         <v>13</v>
@@ -27394,10 +27409,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C363" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D363" t="s">
         <v>9</v>
@@ -27437,10 +27452,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C364" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D364" t="s">
         <v>11</v>
@@ -27480,10 +27495,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C365" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D365" t="s">
         <v>12</v>
@@ -27523,10 +27538,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C366" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D366" t="s">
         <v>87</v>
@@ -27566,10 +27581,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C367" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D367" t="s">
         <v>13</v>
@@ -27609,10 +27624,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C368" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D368" t="s">
         <v>6</v>
@@ -27652,10 +27667,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C369" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D369" t="s">
         <v>7</v>
@@ -27695,10 +27710,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C370" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D370" t="s">
         <v>14</v>
@@ -27738,10 +27753,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C371" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D371" t="s">
         <v>9</v>
@@ -27781,10 +27796,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C372" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D372" t="s">
         <v>11</v>
@@ -27824,10 +27839,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C373" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D373" t="s">
         <v>12</v>
@@ -27867,10 +27882,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C374" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D374" t="s">
         <v>87</v>
@@ -27910,10 +27925,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C375" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D375" t="s">
         <v>13</v>
@@ -27953,10 +27968,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C376" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D376" t="s">
         <v>6</v>
@@ -27996,10 +28011,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C377" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D377" t="s">
         <v>7</v>
@@ -28039,10 +28054,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C378" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D378" t="s">
         <v>14</v>
@@ -28082,10 +28097,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C379" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D379" t="s">
         <v>9</v>
@@ -28125,10 +28140,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C380" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D380" t="s">
         <v>11</v>
@@ -28168,10 +28183,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C381" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D381" t="s">
         <v>6</v>
@@ -28211,10 +28226,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C382" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D382" t="s">
         <v>12</v>
@@ -28254,10 +28269,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C383" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D383" t="s">
         <v>14</v>
@@ -28297,7 +28312,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C384" t="s">
         <v>87</v>
@@ -28340,7 +28355,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C385" t="s">
         <v>13</v>
@@ -28383,10 +28398,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C386" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D386" t="s">
         <v>11</v>
@@ -28426,10 +28441,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C387" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
@@ -28469,10 +28484,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C388" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D388" t="s">
         <v>12</v>
@@ -28512,10 +28527,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C389" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D389" t="s">
         <v>9</v>
@@ -28555,7 +28570,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C390" t="s">
         <v>6</v>
@@ -28598,7 +28613,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C391" t="s">
         <v>14</v>
@@ -28641,7 +28656,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C392" t="s">
         <v>11</v>
@@ -28684,7 +28699,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C393" t="s">
         <v>12</v>
@@ -28727,7 +28742,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C394" t="s">
         <v>7</v>
@@ -28770,7 +28785,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C395" t="s">
         <v>9</v>
@@ -28816,57 +28831,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91BB529-7B6C-1949-9417-D44B062B8D9D}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" t="s">
-        <v>170</v>
+        <v>196</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="L1" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0.45833333333333331</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A26" si="0">A2+$L$1</f>
         <v>0.47222222222222221</v>
@@ -28874,228 +28898,269 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3">
+        <v>138</v>
+      </c>
+      <c r="F3" s="3">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>165</v>
+      <c r="H3" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="I3">
         <f ca="1">RAND()</f>
-        <v>0.57587279295940963</v>
+        <v>0.65215344004149012</v>
       </c>
       <c r="J3">
         <f ca="1">RANK(I3,$I$3:$I$6)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>0.4861111111111111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>166</v>
+      <c r="H4" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I6" ca="1" si="1">RAND()</f>
-        <v>5.8083864287129749E-2</v>
+        <f t="shared" ref="I4:I5" ca="1" si="1">RAND()</f>
+        <v>0.49321257079446301</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J6" ca="1" si="2">RANK(I4,$I$3:$I$6)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="F5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>167</v>
+      <c r="H5" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97508124415451469</v>
+        <v>0.5789366325924783</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>0.51388888888888884</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6">
+        <v>141</v>
+      </c>
+      <c r="F6" s="3">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
-        <v>168</v>
+      <c r="H6" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21173117146133713</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>0.52777777777777768</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8">
+      <c r="B8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>0.55555555555555536</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>0.5694444444444442</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10">
+        <v>144</v>
+      </c>
+      <c r="F10" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>0.58333333333333304</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>0.59722222222222188</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12">
+        <v>146</v>
+      </c>
+      <c r="F12" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>0.61111111111111072</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>0.62499999999999956</v>
@@ -29103,42 +29168,42 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14">
+        <v>148</v>
+      </c>
+      <c r="F14" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>0.6388888888888884</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15">
+      <c r="B15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>0.65277777777777724</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16">
+      <c r="B16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3">
         <v>6</v>
       </c>
     </row>
@@ -29147,13 +29212,13 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666607</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17">
+      <c r="B17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="3">
         <v>6</v>
       </c>
     </row>
@@ -29162,13 +29227,13 @@
         <f t="shared" si="0"/>
         <v>0.68055555555555491</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18">
+      <c r="B18" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3">
         <v>6</v>
       </c>
     </row>
@@ -29177,13 +29242,13 @@
         <f t="shared" si="0"/>
         <v>0.69444444444444375</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19">
+      <c r="B19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3">
         <v>6</v>
       </c>
     </row>
@@ -29192,13 +29257,13 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333259</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20">
+      <c r="B20" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3">
         <v>6</v>
       </c>
     </row>
@@ -29207,13 +29272,13 @@
         <f t="shared" si="0"/>
         <v>0.72222222222222143</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21">
+      <c r="B21" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3">
         <v>4</v>
       </c>
     </row>
@@ -29222,13 +29287,13 @@
         <f t="shared" si="0"/>
         <v>0.73611111111111027</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22">
+      <c r="B22" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3">
         <v>4</v>
       </c>
     </row>
@@ -29237,13 +29302,13 @@
         <f t="shared" si="0"/>
         <v>0.74999999999999911</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23">
+      <c r="B23" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3">
         <v>4</v>
       </c>
     </row>
@@ -29252,13 +29317,13 @@
         <f t="shared" si="0"/>
         <v>0.76388888888888795</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24">
+      <c r="B24" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="3">
         <v>4</v>
       </c>
     </row>
@@ -29267,33 +29332,33 @@
         <f t="shared" si="0"/>
         <v>0.77777777777777679</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>0.79166666666666563</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F27">
+      <c r="F27" s="3">
         <f>SUM(F2:F25)</f>
         <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F29">
+      <c r="F29" s="3">
         <f>F27/24</f>
         <v>5.416666666666667</v>
       </c>
